--- a/2017.xlsx
+++ b/2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyagi\Desktop\Work\ML\Research Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIdhi Kaitwade\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68B492-A9D7-40E3-865E-DA44A013DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD81195-9848-4707-A8F9-B6BC0B27AF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>Date</t>
   </si>
@@ -941,9 +941,6 @@
   </si>
   <si>
     <t>2017-02-19</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>2017-02-20</t>
@@ -1488,17 +1485,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>138716</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -1522,7 +1519,7 @@
         <v>130908</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>140395</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -1538,7 +1535,7 @@
         <v>141014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>142464</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -1554,7 +1551,7 @@
         <v>143588</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>140323</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>140730</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>133006</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>139035</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>267</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>142090</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>268</v>
       </c>
@@ -1602,7 +1599,7 @@
         <v>143929</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>269</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>142112</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -1618,7 +1615,7 @@
         <v>141712</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>271</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>132552</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>272</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>131311</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>273</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>141850</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>142340</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>144400</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>276</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>143076</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>277</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>142719</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>278</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>143580</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -1690,7 +1687,7 @@
         <v>136083</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>280</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>143688</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>281</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>144828</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -1714,7 +1711,7 @@
         <v>143493</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -1722,12 +1719,15 @@
         <v>124726</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>137549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>285</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>140411</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>286</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>133375</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>287</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>141132</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>288</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>142109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>289</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>139727</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>141298</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>291</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>142713</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>140106</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>132189</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>294</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>140820</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>295</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>142002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>296</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>143064</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>297</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>143203</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>298</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>142428</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>299</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>139945</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>300</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>134796</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>301</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>141949</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>302</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>142927</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>303</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>136102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>304</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>143874</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>305</v>
       </c>
@@ -1895,492 +1895,495 @@
         <v>141324</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>306</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>137977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>308</v>
       </c>
       <c r="B52">
         <v>133575</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53">
         <v>143199</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B54">
         <v>143785</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55">
+        <v>145515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>312</v>
       </c>
       <c r="B56">
         <v>143849</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B57">
         <v>140216</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B58">
         <v>142430</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B59">
         <v>136124</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B60">
         <v>143793</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61">
         <v>144885</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B62">
         <v>144338</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B63">
         <v>142029</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B64">
         <v>144241</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B65">
         <v>143058</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B66">
         <v>136081</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B67">
         <v>143121</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68">
         <v>142902</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B69">
         <v>141102</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70">
         <v>140207</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B71">
         <v>129977</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B72">
         <v>134810</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B73">
         <v>129441</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B74">
         <v>121196</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B75">
         <v>132070</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B76">
         <v>137335</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77">
         <v>138222</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B78">
         <v>138863</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B79">
         <v>138790</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B80">
         <v>132412</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B81">
         <v>140985</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B82">
         <v>142850</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B83">
         <v>143935</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B84">
         <v>145061</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B85">
         <v>147615</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B86">
         <v>145517</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B87">
         <v>138663</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B88">
         <v>146050</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B89">
         <v>147820</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B90">
         <v>148633</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B91">
         <v>148925</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B92">
         <v>150835</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B93">
         <v>146557</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B94">
         <v>138151</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B95">
         <v>150801</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B96">
         <v>148784</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B97">
         <v>143749</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B98">
         <v>148343</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B99">
         <v>149562</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B100">
         <v>150292</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B101">
         <v>143094</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B102">
         <v>150261</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B103">
         <v>151489</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B104">
         <v>153759</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B105">
         <v>154416</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B106">
         <v>151620</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B107">
         <v>151052</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B108">
         <v>146171</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B109">
         <v>157252</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B110">
         <v>156713</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B111">
         <v>155126</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>156799</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>156333</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>152558</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>142959</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>156527</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>153595</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>153293</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>151664</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>152568</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>147649</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>141435</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>140929</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>152064</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>150773</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>152339</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>153750</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>149481</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>139757</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>150427</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>148586</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>150837</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>150153</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>154311</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>152641</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>146982</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>153096</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>28</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>155421</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>149223</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>151217</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>151207</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>151481</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>137845</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>149808</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>149260</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>154137</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>151828</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>38</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>149360</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>147938</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>40</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>140568</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>147644</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>147724</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>43</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>147038</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>44</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>148280</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>150452</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>147923</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>47</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>146722</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>48</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>148463</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>49</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>149053</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>50</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>145592</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>51</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>145528</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>144261</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>53</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>143115</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>54</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>136739</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>145816</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>56</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>145531</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>57</v>
       </c>
@@ -2828,12 +2831,15 @@
         <v>144894</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>149359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>59</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>148808</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>60</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>149234</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>146242</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>62</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>145597</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>63</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>147322</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>64</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>145492</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>65</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>148679</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>66</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>148503</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>67</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>148705</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>68</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>138418</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>69</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>144688</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>70</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>146788</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>71</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>139459</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>72</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>138784</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>73</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>138572</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>74</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>137805</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>75</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>133470</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>76</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>143256</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>77</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>145382</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>78</v>
       </c>
@@ -2993,12 +2999,15 @@
         <v>147294</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>146914</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>80</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>149393</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>81</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>150614</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>82</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>146080</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>83</v>
       </c>
@@ -3030,7 +3039,7 @@
         <v>152469</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>84</v>
       </c>
@@ -3038,7 +3047,7 @@
         <v>149757</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>85</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>146631</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>86</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>147809</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>148367</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>88</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>146654</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>142038</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>148603</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>91</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>147349</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>92</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>147249</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>93</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>147470</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>94</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>150473</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>95</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>147675</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>96</v>
       </c>
@@ -3134,12 +3143,15 @@
         <v>139381</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>144603</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>98</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>149917</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>99</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>149556</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>100</v>
       </c>
@@ -3163,7 +3175,7 @@
         <v>147574</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>101</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>149104</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>102</v>
       </c>
@@ -3179,7 +3191,7 @@
         <v>149943</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>103</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>140635</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>104</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>149789</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>105</v>
       </c>
@@ -3203,7 +3215,7 @@
         <v>148559</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>106</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>148886</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>107</v>
       </c>
@@ -3219,7 +3231,7 @@
         <v>150841</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>108</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>151254</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>109</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>152103</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>110</v>
       </c>
@@ -3243,7 +3255,7 @@
         <v>146941</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>111</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>144995</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>112</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>151455</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>113</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>150211</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>114</v>
       </c>
@@ -3275,7 +3287,7 @@
         <v>151691</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>115</v>
       </c>
@@ -3283,7 +3295,7 @@
         <v>156084</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>153730</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>147932</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>118</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>150515</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>119</v>
       </c>
@@ -3315,7 +3327,7 @@
         <v>141054</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>120</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>156825</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>121</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>160269</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>122</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>160407</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>123</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>154376</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>124</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>145543</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>125</v>
       </c>
@@ -3363,12 +3375,15 @@
         <v>153059</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>154941</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>127</v>
       </c>
@@ -3376,7 +3391,7 @@
         <v>152872</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -3384,7 +3399,7 @@
         <v>154026</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>129</v>
       </c>
@@ -3392,7 +3407,7 @@
         <v>146336</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>130</v>
       </c>
@@ -3400,12 +3415,15 @@
         <v>150956</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>145497</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>132</v>
       </c>
@@ -3413,7 +3431,7 @@
         <v>150498</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>133</v>
       </c>
@@ -3421,7 +3439,7 @@
         <v>146726</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>134</v>
       </c>
@@ -3429,7 +3447,7 @@
         <v>149938</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>135</v>
       </c>
@@ -3437,7 +3455,7 @@
         <v>147791</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>136</v>
       </c>
@@ -3445,7 +3463,7 @@
         <v>143405</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>137</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>143413</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>138</v>
       </c>
@@ -3461,7 +3479,7 @@
         <v>140766</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>139</v>
       </c>
@@ -3469,7 +3487,7 @@
         <v>149476</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>140</v>
       </c>
@@ -3477,7 +3495,7 @@
         <v>150028</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>141</v>
       </c>
@@ -3485,7 +3503,7 @@
         <v>153529</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>142</v>
       </c>
@@ -3493,7 +3511,7 @@
         <v>154911</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>143</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>155008</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>144</v>
       </c>
@@ -3509,7 +3527,7 @@
         <v>156079</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>145</v>
       </c>
@@ -3517,7 +3535,7 @@
         <v>153043</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>146</v>
       </c>
@@ -3525,7 +3543,7 @@
         <v>157221</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>147</v>
       </c>
@@ -3533,7 +3551,7 @@
         <v>158568</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>148</v>
       </c>
@@ -3541,7 +3559,7 @@
         <v>158680</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>149</v>
       </c>
@@ -3549,12 +3567,15 @@
         <v>157922</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>156798</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>151</v>
       </c>
@@ -3562,7 +3583,7 @@
         <v>155621</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>152</v>
       </c>
@@ -3570,102 +3591,159 @@
         <v>143339</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>155771</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>155330</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>156732</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>158515</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>151268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>152872</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>152304</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>155991</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>158007</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>155846</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>155846</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>148170</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>141865</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>144423</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>144904</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>155081</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>154762</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>155291</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>153582</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>172</v>
       </c>
@@ -3673,192 +3751,303 @@
         <v>154646</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>147222</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>154567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>154897</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>154745</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>153699</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>154122</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>152967</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>146509</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>152251</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>154748</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>148478</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>137526</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>135436</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>135742</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>139846</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>147385</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>147965</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>149983</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>147717</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>147816</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>149466</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>141337</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>145524</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>145266</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>145204</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>145446</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>146251</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>143303</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>137821</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>144981</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>144646</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>145636</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>147431</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>146318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>144727</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>137277</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>145068</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>210</v>
       </c>
@@ -3866,12 +4055,15 @@
         <v>145861</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>145424</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>212</v>
       </c>
@@ -3879,22 +4071,31 @@
         <v>145590</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>147519</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>145427</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>137074</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>216</v>
       </c>
@@ -3902,22 +4103,31 @@
         <v>145915</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>144340</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>145157</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>144408</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>220</v>
       </c>
@@ -3925,7 +4135,7 @@
         <v>145413</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>221</v>
       </c>
@@ -3933,27 +4143,39 @@
         <v>145050</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>143715</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>146317</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>145104</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>226</v>
       </c>
@@ -3961,52 +4183,79 @@
         <v>142334</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>142334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>140165</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>134021</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>142267</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>139716</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>140929</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>143660</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>144359</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>142721</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>236</v>
       </c>
@@ -4014,42 +4263,63 @@
         <v>136961</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>141870</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>145321</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>145860</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>145090</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>147004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>148055</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>139676</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>244</v>
       </c>
@@ -4057,42 +4327,63 @@
         <v>148439</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>148401</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>148465</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>148137</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>148182</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>147433</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>140302</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>145875</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>252</v>
       </c>
@@ -4100,7 +4391,7 @@
         <v>149317</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>253</v>
       </c>
@@ -4108,28 +4399,28 @@
         <v>149168</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>254</v>
       </c>
       <c r="B364">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+        <v>147481</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>255</v>
       </c>
       <c r="B365">
-        <v>45141</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+        <v>148226</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>256</v>
       </c>
       <c r="B366">
-        <v>45241</v>
+        <v>148492</v>
       </c>
     </row>
   </sheetData>
